--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Ian_GIS\gleon\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -370,9 +365,6 @@
     <t>27°37', 81°19'</t>
   </si>
   <si>
-    <t>KAIT CAN YOU TELL WHAT THIS IS? http://www.jstor.org.proxy-remote.galib.uga.edu/stable/pdf/4315187.pdf?acceptTC=true</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Yao, H., McConnell, C., Somers, K. M., Yan, N. D., Watmough, S., &amp; Scheider, W. (2011). Nearshore human interventions reverse patterns of decline in lake calcium budgets in central Ontario as demonstrated by mass‐balance analyses. </t>
     </r>
@@ -417,6 +409,9 @@
   </si>
   <si>
     <t>mesotrophic</t>
+  </si>
+  <si>
+    <t>Kvarnas, H (2001) Morphometry and hydrology of the four large lakes of Sweden. Ambio 30(8): 467-474; other sources see CommentsQuirks file for links.</t>
   </si>
 </sst>
 </file>
@@ -896,7 +891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -907,7 +902,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="3"/>
@@ -1246,7 +1241,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="6">
         <v>4831.9225000000006</v>
@@ -1295,9 +1290,15 @@
       <c r="H11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="I11" s="6">
+        <v>4680000</v>
+      </c>
+      <c r="J11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.61470000000000002</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3">
         <v>4.47</v>
@@ -1353,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1399,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">

--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Ian_GIS\gleon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17952" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Lake</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>DOC</t>
-  </si>
-  <si>
-    <t>don't have</t>
   </si>
   <si>
     <t>Watershed % Wetland</t>
@@ -330,9 +327,6 @@
     </r>
   </si>
   <si>
-    <t>http://www.niva.no/en/langtjern</t>
-  </si>
-  <si>
     <t>59°06’, -13°62’</t>
   </si>
   <si>
@@ -417,6 +411,9 @@
   </si>
   <si>
     <t>mesotrophic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.niva.no/en/langtjern</t>
   </si>
 </sst>
 </file>
@@ -906,67 +903,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="12" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="J2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>8</v>
@@ -978,12 +975,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="8">
         <v>36.4</v>
@@ -1001,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="3"/>
@@ -1017,12 +1014,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -1031,12 +1028,12 @@
       <c r="H4" s="23"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8">
         <v>71.400000000000006</v>
@@ -1054,7 +1051,7 @@
         <v>3.1</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="6">
         <v>528.27563249500008</v>
@@ -1078,12 +1075,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8">
         <v>22.7</v>
@@ -1099,7 +1096,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="6">
         <v>480</v>
@@ -1107,22 +1104,22 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
-        <v>11</v>
+      <c r="M6" s="3">
+        <v>1.4</v>
       </c>
       <c r="N6" s="4">
-        <v>10</v>
+        <v>5.3</v>
       </c>
       <c r="O6" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="8">
         <v>3990</v>
@@ -1140,7 +1137,7 @@
         <v>6.2</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="6">
         <v>60403.9087</v>
@@ -1164,12 +1161,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8">
         <v>421</v>
@@ -1178,12 +1175,12 @@
       <c r="H8" s="23"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8">
         <v>149</v>
@@ -1201,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="6">
         <v>6752.4100000000008</v>
@@ -1223,12 +1220,12 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8">
         <v>1610</v>
@@ -1246,7 +1243,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10" s="6">
         <v>4831.9225000000006</v>
@@ -1270,12 +1267,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8">
         <v>565000</v>
@@ -1293,7 +1290,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
@@ -1309,12 +1306,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="13">
         <v>1557</v>
@@ -1323,88 +1320,88 @@
         <v>12</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="15">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\SOS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17952" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Lake</t>
   </si>
@@ -282,7 +277,7 @@
     <t>Sources (what can't be gleaned from GIS)</t>
   </si>
   <si>
-    <t>60°37’, -9°73’</t>
+    <t>59°06’, -13°62’</t>
   </si>
   <si>
     <r>
@@ -295,12 +290,15 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>°41', 95°13'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>43</t>
+      <t>°11', 89°42'</t>
+    </r>
+  </si>
+  <si>
+    <t>68°63', 149°61'</t>
+  </si>
+  <si>
+    <r>
+      <t>45</t>
     </r>
     <r>
       <rPr>
@@ -309,54 +307,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>°36', 95°15'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>°44', 95°34'</t>
-    </r>
-  </si>
-  <si>
-    <t>59°06’, -13°62’</t>
-  </si>
-  <si>
-    <r>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>°11', 89°42'</t>
-    </r>
-  </si>
-  <si>
-    <t>68°63', 149°61'</t>
-  </si>
-  <si>
-    <r>
-      <t>45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>°38', 79°14'</t>
     </r>
   </si>
@@ -414,13 +364,34 @@
   </si>
   <si>
     <t xml:space="preserve"> http://www.niva.no/en/langtjern</t>
+  </si>
+  <si>
+    <t>Data years</t>
+  </si>
+  <si>
+    <t>2004-2013</t>
+  </si>
+  <si>
+    <t>2001-2013</t>
+  </si>
+  <si>
+    <t>2006-2013</t>
+  </si>
+  <si>
+    <t>1991-2001</t>
+  </si>
+  <si>
+    <t>Mar 08-May 10</t>
+  </si>
+  <si>
+    <t>2005-2008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -593,34 +564,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +657,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,7 +692,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -893,514 +869,456 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="12" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8">
         <v>36.4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>2760000</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>2334.768</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="6"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
         <v>2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>5</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:16" ht="15.75">
+      <c r="A4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9500000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6">
+        <v>528.27563249500008</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="A5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3990</v>
+      </c>
+      <c r="E5" s="2">
+        <v>505000000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>35200</v>
+      </c>
+      <c r="G5" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="6">
+        <v>60403.9087</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.626</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2.84</v>
+      </c>
+      <c r="O5" s="4">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75">
+      <c r="A6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8">
+        <v>149</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10600000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8104</v>
+      </c>
+      <c r="G6" s="3">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="6">
+        <v>6752.4100000000008</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.504</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75">
+      <c r="A7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1610</v>
+      </c>
+      <c r="E7" s="2">
+        <v>235000000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>25900</v>
+      </c>
+      <c r="G7" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="6">
+        <v>4831.9225000000006</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.106</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N7" s="3">
+        <v>5.32</v>
+      </c>
+      <c r="O7" s="3">
+        <v>11</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="13">
+        <v>565000</v>
+      </c>
+      <c r="E8" s="25">
+        <v>153000000000</v>
+      </c>
+      <c r="F8" s="26">
+        <v>2007000</v>
+      </c>
+      <c r="G8" s="26">
+        <v>27</v>
+      </c>
+      <c r="H8" s="26">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26">
+        <v>4.47</v>
+      </c>
+      <c r="O8" s="28">
+        <v>6.3</v>
+      </c>
+      <c r="P8" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75">
+      <c r="A11" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="8">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="D5" s="2">
-        <v>9500000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="6">
-        <v>528.27563249500008</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="N5" s="3">
-        <v>5</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="B14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75">
+      <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="8">
-        <v>22.7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>454000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>32448</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="6">
-        <v>480</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="N6" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="O6" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8">
-        <v>3990</v>
-      </c>
-      <c r="D7" s="2">
-        <v>505000000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>35200</v>
-      </c>
-      <c r="F7" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="G7" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="6">
-        <v>60403.9087</v>
-      </c>
-      <c r="J7" s="3">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.626</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2.84</v>
-      </c>
-      <c r="N7" s="4">
-        <v>20</v>
-      </c>
-      <c r="O7" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8">
-        <v>421</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="8">
-        <v>149</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10600000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8104</v>
-      </c>
-      <c r="F9" s="3">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="6">
-        <v>6752.4100000000008</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.504</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>4.75</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2</v>
-      </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1610</v>
-      </c>
-      <c r="D10" s="2">
-        <v>235000000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>25900</v>
-      </c>
-      <c r="F10" s="3">
-        <v>14.6</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="6">
-        <v>4831.9225000000006</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.106</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="M10" s="3">
-        <v>5.32</v>
-      </c>
-      <c r="N10" s="3">
-        <v>11</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="8">
-        <v>565000</v>
-      </c>
-      <c r="D11" s="2">
-        <v>153000000000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2007000</v>
-      </c>
-      <c r="F11" s="3">
-        <v>27</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
-        <v>4.47</v>
-      </c>
-      <c r="N11" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="O11" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1557</v>
-      </c>
-      <c r="F12" s="14">
-        <v>12</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="15">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="16"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -384,7 +384,7 @@
     <t>Mar 08-May 10</t>
   </si>
   <si>
-    <t>2005-2008</t>
+    <t>2001-2010</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -880,7 +880,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -525,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -544,18 +544,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -869,7 +863,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -880,14 +874,14 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="3" width="13.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -904,73 +898,73 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:16" s="11" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>36.4</v>
       </c>
       <c r="E3" s="2">
         <v>2760000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>2334.768</v>
       </c>
       <c r="G3" s="3">
@@ -979,7 +973,7 @@
       <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="6"/>
@@ -997,22 +991,22 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>71.400000000000006</v>
       </c>
       <c r="E4" s="2">
         <v>9500000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>4000</v>
       </c>
       <c r="G4" s="3">
@@ -1021,7 +1015,7 @@
       <c r="H4" s="3">
         <v>3.1</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="6">
@@ -1047,31 +1041,31 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>3990</v>
       </c>
       <c r="E5" s="2">
         <v>505000000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>35200</v>
       </c>
       <c r="G5" s="3">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3">
         <v>6.2</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="6">
@@ -1097,22 +1091,22 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>149</v>
       </c>
       <c r="E6" s="2">
         <v>10600000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>8104</v>
       </c>
       <c r="G6" s="3">
@@ -1121,7 +1115,7 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="6">
@@ -1145,31 +1139,31 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="15.75">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>1610</v>
       </c>
       <c r="E7" s="2">
         <v>235000000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>25900</v>
       </c>
       <c r="G7" s="3">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="6">
@@ -1194,50 +1188,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="13">
         <v>565000</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <v>153000000000</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="13">
         <v>2007000</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>27</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26">
+      <c r="J8" s="13"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24">
         <v>4.47</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="26">
         <v>6.3</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1245,26 +1239,26 @@
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:16" ht="15.75">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:16" ht="15.75">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:16" ht="15.75">
       <c r="A15" s="5" t="s">
@@ -1294,28 +1288,28 @@
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="5" t="s">

--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1) Lake characteristics" sheetId="1" r:id="rId1"/>
+    <sheet name="2) Lake parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>Lake</t>
   </si>
@@ -45,15 +46,6 @@
     <t>Langtjern</t>
   </si>
   <si>
-    <t>Secchi_m</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>DOC</t>
-  </si>
-  <si>
     <t>Watershed % Wetland</t>
   </si>
   <si>
@@ -76,32 +68,6 @@
   </si>
   <si>
     <t>Area (ha)</t>
-  </si>
-  <si>
-    <r>
-      <t>Volume (m</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12.1"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>³</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12.1"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>Perimeter (m)</t>
@@ -215,23 +181,6 @@
   </si>
   <si>
     <r>
-      <t>46</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>°02', 89°40'</t>
-    </r>
-  </si>
-  <si>
-    <t>N lat,  W long</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Webster, K. E., Kratz, T. K., Bowser, C. J., Magnuson, J. J., &amp; Rose, W. J. (1996). The influence of landscape position on lake chemical responses to drought in northern Wisconsin. </t>
     </r>
     <r>
@@ -280,35 +229,7 @@
     <t>59°06’, -13°62’</t>
   </si>
   <si>
-    <r>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>°11', 89°42'</t>
-    </r>
-  </si>
-  <si>
     <t>68°63', 149°61'</t>
-  </si>
-  <si>
-    <r>
-      <t>45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>°38', 79°14'</t>
-    </r>
   </si>
   <si>
     <t>27°37', 81°19'</t>
@@ -385,13 +306,185 @@
   </si>
   <si>
     <t>2001-2010</t>
+  </si>
+  <si>
+    <t>PropCanopy</t>
+  </si>
+  <si>
+    <t>PropWetlands</t>
+  </si>
+  <si>
+    <t>PropGW</t>
+  </si>
+  <si>
+    <t>R_auto</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Depth (m)</t>
+  </si>
+  <si>
+    <r>
+      <t>Area (m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Volume (m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>³)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DOC_init (g/m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>³)</t>
+    </r>
+  </si>
+  <si>
+    <t>POC_init (g/m³)</t>
+  </si>
+  <si>
+    <t>BurialFactor (1/day)</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Sedimentation</t>
+  </si>
+  <si>
+    <t>Surface/ground inflows</t>
+  </si>
+  <si>
+    <t>Respiration</t>
+  </si>
+  <si>
+    <r>
+      <t>Observed_MAR_oc (g/m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²/yr)</t>
+    </r>
+  </si>
+  <si>
+    <t>AerialLoad (g POC/m/d)</t>
+  </si>
+  <si>
+    <t>WetlandLoad (g POC/m/d)</t>
+  </si>
+  <si>
+    <r>
+      <t>DOC_gw (g/m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>³)</t>
+    </r>
+  </si>
+  <si>
+    <t>DOC_precip (g/m³)</t>
+  </si>
+  <si>
+    <t>POC_lc (1/day)</t>
+  </si>
+  <si>
+    <t>RespParam</t>
+  </si>
+  <si>
+    <t>DOC_sw (g/m³)</t>
+  </si>
+  <si>
+    <t>2005-2008_Kling_Toolik_DOC: pulled avg DOC for value in DOC column</t>
+  </si>
+  <si>
+    <t>TP (g/m³)</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>N lat,  W lon</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Florida, USA</t>
+  </si>
+  <si>
+    <t>Ontario, Canada</t>
+  </si>
+  <si>
+    <t>Wisconsin, USA</t>
+  </si>
+  <si>
+    <t>Alaska, USA</t>
+  </si>
+  <si>
+    <t>Secchi (m)</t>
+  </si>
+  <si>
+    <t>Volume (m³)</t>
+  </si>
+  <si>
+    <t>DOC (g/m³)</t>
+  </si>
+  <si>
+    <t>45°38', 79°14'</t>
+  </si>
+  <si>
+    <t>43°11', 89°42'</t>
+  </si>
+  <si>
+    <t>46°02', 89°40'</t>
+  </si>
+  <si>
+    <t>Table 2. Lake model parameters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,42 +500,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.1"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.1"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -464,13 +527,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -484,13 +540,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -525,72 +615,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,7 +965,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -871,449 +973,1013 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="3" width="13.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="39.75" thickBot="1">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="25">
+        <v>36.4</v>
+      </c>
+      <c r="F3" s="26">
+        <v>2760000</v>
+      </c>
+      <c r="G3" s="25">
+        <v>2334.768</v>
+      </c>
+      <c r="H3" s="27">
+        <v>10</v>
+      </c>
+      <c r="I3" s="27">
+        <v>2</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="27">
+        <v>2</v>
+      </c>
+      <c r="L3" s="27">
+        <v>5</v>
+      </c>
+      <c r="M3" s="27">
+        <v>8</v>
+      </c>
+      <c r="N3" s="25"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="25">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="F4" s="26">
+        <v>9500000</v>
+      </c>
+      <c r="G4" s="25">
+        <v>4000</v>
+      </c>
+      <c r="H4" s="27">
+        <v>12</v>
+      </c>
+      <c r="I4" s="27">
+        <v>3.1</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="L4" s="27">
+        <v>5</v>
+      </c>
+      <c r="M4" s="27">
+        <v>4</v>
+      </c>
+      <c r="N4" s="25">
+        <v>528.27563249500008</v>
+      </c>
+      <c r="O4" s="27">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>0</v>
+      </c>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="25">
+        <v>3990</v>
+      </c>
+      <c r="F5" s="26">
+        <v>505000000</v>
+      </c>
+      <c r="G5" s="25">
+        <v>35200</v>
+      </c>
+      <c r="H5" s="27">
+        <v>12.7</v>
+      </c>
+      <c r="I5" s="27">
+        <v>6.2</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="27">
+        <v>2.84</v>
+      </c>
+      <c r="L5" s="28">
+        <v>20</v>
+      </c>
+      <c r="M5" s="28">
+        <v>5</v>
+      </c>
+      <c r="N5" s="25">
+        <v>60403.9087</v>
+      </c>
+      <c r="O5" s="27">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="P5" s="27">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>0.626</v>
+      </c>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="25">
+        <v>149</v>
+      </c>
+      <c r="F6" s="26">
+        <v>10600000</v>
+      </c>
+      <c r="G6" s="25">
+        <v>8104</v>
+      </c>
+      <c r="H6" s="27">
+        <v>7</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="27">
+        <v>4.75</v>
+      </c>
+      <c r="L6" s="27">
+        <v>2</v>
+      </c>
+      <c r="M6" s="29">
+        <v>5</v>
+      </c>
+      <c r="N6" s="25">
+        <v>6752.4100000000008</v>
+      </c>
+      <c r="O6" s="27">
+        <v>0.504</v>
+      </c>
+      <c r="P6" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1610</v>
+      </c>
+      <c r="F7" s="26">
+        <v>235000000</v>
+      </c>
+      <c r="G7" s="25">
+        <v>25900</v>
+      </c>
+      <c r="H7" s="27">
+        <v>14.6</v>
+      </c>
+      <c r="I7" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="27">
+        <v>5.32</v>
+      </c>
+      <c r="L7" s="27">
+        <v>11</v>
+      </c>
+      <c r="M7" s="27">
+        <v>3</v>
+      </c>
+      <c r="N7" s="25">
+        <v>4831.9225000000006</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0.106</v>
+      </c>
+      <c r="P7" s="27">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="32">
+        <v>565000</v>
+      </c>
+      <c r="F8" s="33">
+        <v>153000000000</v>
+      </c>
+      <c r="G8" s="32">
+        <v>2007000</v>
+      </c>
+      <c r="H8" s="34">
+        <v>27</v>
+      </c>
+      <c r="I8" s="34">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="34">
+        <v>4.47</v>
+      </c>
+      <c r="L8" s="35">
+        <v>6.3</v>
+      </c>
+      <c r="M8" s="35">
+        <v>4</v>
+      </c>
+      <c r="N8" s="32"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="36"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
+      <c r="A11" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A2" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>3062</v>
+      </c>
+      <c r="C4">
+        <v>4000</v>
+      </c>
+      <c r="D4">
+        <v>35200</v>
+      </c>
+      <c r="E4">
+        <v>8104</v>
+      </c>
+      <c r="F4">
+        <v>25900</v>
+      </c>
+      <c r="G4">
+        <v>2007000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>12.7</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>14.6</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="10">
+        <v>364000</v>
+      </c>
+      <c r="C6">
+        <v>713800</v>
+      </c>
+      <c r="D6">
+        <v>39850000</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1490000</v>
+      </c>
+      <c r="F6">
+        <v>16079000</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5650000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2760000</v>
+      </c>
+      <c r="C7">
+        <v>8320000</v>
+      </c>
+      <c r="D7">
+        <v>505100000</v>
+      </c>
+      <c r="E7">
+        <v>10566000</v>
+      </c>
+      <c r="F7">
+        <v>234753400</v>
+      </c>
+      <c r="G7" s="10">
+        <v>153000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>3.992</v>
+      </c>
+      <c r="C8">
+        <v>3.7</v>
+      </c>
+      <c r="D8">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>2.9</v>
+      </c>
+      <c r="G8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>0.54</v>
+      </c>
+      <c r="C9">
+        <v>0.37</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>0.01</v>
+      </c>
+      <c r="C11">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.01</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>1.0363000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="11">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <v>249</v>
+      </c>
+      <c r="E12">
+        <v>153.36000000000001</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="F14">
+        <v>0.77</v>
+      </c>
+      <c r="G14">
+        <v>0.61470000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="B15">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G15">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19">
+        <v>6.2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>6.64</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19">
         <v>9</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="6">
-        <v>36.4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2760000</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2334.768</v>
-      </c>
-      <c r="G3" s="3">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3">
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>0.9</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.19</v>
+      </c>
+      <c r="F20">
+        <v>0.19</v>
+      </c>
+      <c r="G20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3">
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="O3" s="3">
-        <v>5</v>
-      </c>
-      <c r="P3" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
-      <c r="A4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="6">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9500000</v>
-      </c>
-      <c r="F4" s="6">
-        <v>4000</v>
-      </c>
-      <c r="G4" s="3">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="6">
-        <v>528.27563249500008</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="O4" s="3">
-        <v>5</v>
-      </c>
-      <c r="P4" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
-      <c r="A5" s="15" t="s">
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3990</v>
-      </c>
-      <c r="E5" s="2">
-        <v>505000000</v>
-      </c>
-      <c r="F5" s="6">
-        <v>35200</v>
-      </c>
-      <c r="G5" s="3">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="6">
-        <v>60403.9087</v>
-      </c>
-      <c r="K5" s="3">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="L5" s="3">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.626</v>
-      </c>
-      <c r="N5" s="3">
-        <v>2.84</v>
-      </c>
-      <c r="O5" s="4">
-        <v>20</v>
-      </c>
-      <c r="P5" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
-      <c r="A6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="6">
-        <v>149</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10600000</v>
-      </c>
-      <c r="F6" s="6">
-        <v>8104</v>
-      </c>
-      <c r="G6" s="3">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="6">
-        <v>6752.4100000000008</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.504</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>4.75</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
-      <c r="A7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1610</v>
-      </c>
-      <c r="E7" s="2">
-        <v>235000000</v>
-      </c>
-      <c r="F7" s="6">
-        <v>25900</v>
-      </c>
-      <c r="G7" s="3">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="6">
-        <v>4831.9225000000006</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.106</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="N7" s="3">
-        <v>5.32</v>
-      </c>
-      <c r="O7" s="3">
-        <v>11</v>
-      </c>
-      <c r="P7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A8" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <v>0.01</v>
+      </c>
+      <c r="C23">
+        <v>0.01</v>
+      </c>
+      <c r="D23">
+        <v>0.01</v>
+      </c>
+      <c r="E23">
+        <v>0.01</v>
+      </c>
+      <c r="F23">
+        <v>0.01</v>
+      </c>
+      <c r="G23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>1E-3</v>
+      </c>
+      <c r="C24">
+        <v>6.1399999999999996E-3</v>
+      </c>
+      <c r="D24">
+        <v>1E-3</v>
+      </c>
+      <c r="E24">
+        <v>1E-3</v>
+      </c>
+      <c r="F24">
+        <v>1E-3</v>
+      </c>
+      <c r="G24">
+        <v>1.4819E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="13">
-        <v>565000</v>
-      </c>
-      <c r="E8" s="23">
-        <v>153000000000</v>
-      </c>
-      <c r="F8" s="13">
-        <v>2007000</v>
-      </c>
-      <c r="G8" s="24">
-        <v>27</v>
-      </c>
-      <c r="H8" s="24">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24">
-        <v>4.47</v>
-      </c>
-      <c r="O8" s="26">
-        <v>6.3</v>
-      </c>
-      <c r="P8" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
-      <c r="A11" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="5" t="s">
-        <v>16</v>
+      <c r="B25" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Ian_GIS\gleon\SOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9390" activeTab="1"/>
   </bookViews>
@@ -10,9 +15,9 @@
     <sheet name="1) Lake characteristics" sheetId="1" r:id="rId1"/>
     <sheet name="2) Lake parameters" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -483,8 +488,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,21 +970,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
@@ -999,7 +1004,7 @@
     <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -1021,7 +1026,7 @@
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="39.75" thickBot="1">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1080,7 @@
       </c>
       <c r="R2" s="22"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1126,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
@@ -1175,7 +1180,7 @@
       </c>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
@@ -1229,7 +1234,7 @@
       </c>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +1288,7 @@
       </c>
       <c r="R6" s="13"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
@@ -1337,7 +1342,7 @@
       </c>
       <c r="R7" s="13"/>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
@@ -1383,12 +1388,12 @@
       <c r="Q8" s="34"/>
       <c r="R8" s="36"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1397,14 +1402,14 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1413,7 +1418,7 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1421,7 +1426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75">
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1430,14 +1435,14 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1446,14 +1451,14 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1462,7 +1467,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1471,7 +1476,7 @@
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1483,26 +1488,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>46</v>
       </c>
@@ -1525,7 +1530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>53</v>
       </c>
@@ -1536,7 +1541,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1564,7 @@
         <v>2007000</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1582,7 +1587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1605,7 +1610,7 @@
         <v>5650000000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1628,7 +1633,7 @@
         <v>153000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1651,7 +1656,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1674,12 +1679,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1702,7 +1707,7 @@
         <v>1.0363000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1725,12 +1730,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1753,7 +1758,7 @@
         <v>0.61470000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1799,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1822,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1843,7 +1848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -1862,7 +1867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1875,7 +1880,7 @@
       <c r="D20" s="11">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="11">
         <v>0.19</v>
       </c>
       <c r="F20">
@@ -1885,7 +1890,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1908,12 +1913,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1936,7 +1941,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -1959,7 +1964,7 @@
         <v>1.4819E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>

--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -574,7 +574,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -698,6 +704,8 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1492,7 +1500,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,19 +1700,19 @@
         <v>0.01</v>
       </c>
       <c r="C11">
-        <v>8.2100000000000006E-2</v>
+        <v>7.0860000000000006E-2</v>
       </c>
       <c r="D11">
         <v>0.01</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>8.3811000000000007E-3</v>
       </c>
       <c r="G11">
-        <v>1.0363000000000001E-2</v>
+        <v>0.15939</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1835,8 +1843,8 @@
       <c r="C18">
         <v>10</v>
       </c>
-      <c r="D18" s="11">
-        <v>0</v>
+      <c r="D18" s="37">
+        <v>10</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -1945,46 +1953,46 @@
       <c r="A24" t="s">
         <v>63</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="11">
         <v>1E-3</v>
       </c>
       <c r="C24">
-        <v>6.1399999999999996E-3</v>
+        <v>2.1638999999999999E-3</v>
       </c>
       <c r="D24">
         <v>1E-3</v>
       </c>
       <c r="E24">
-        <v>1E-3</v>
+        <v>1.66E-2</v>
       </c>
       <c r="F24">
-        <v>1E-3</v>
+        <v>2.5043999999999999E-3</v>
       </c>
       <c r="G24">
-        <v>1.4819E-3</v>
+        <v>2.1359999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="38">
         <v>0.8</v>
       </c>
       <c r="C25" s="4">
-        <v>0.92149999999999999</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="D25" s="4">
         <v>0.8</v>
       </c>
       <c r="E25" s="4">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F25" s="4">
-        <v>0.8</v>
+        <v>0.87927200000000005</v>
       </c>
       <c r="G25" s="4">
-        <v>0.8</v>
+        <v>0.67564999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Ian_GIS\gleon\SOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kfarrell\Documents\R\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="1) Lake characteristics" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>27°37', 81°19'</t>
   </si>
   <si>
-    <t>KAIT CAN YOU TELL WHAT THIS IS? http://www.jstor.org.proxy-remote.galib.uga.edu/stable/pdf/4315187.pdf?acceptTC=true</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Yao, H., McConnell, C., Somers, K. M., Yan, N. D., Watmough, S., &amp; Scheider, W. (2011). Nearshore human interventions reverse patterns of decline in lake calcium budgets in central Ontario as demonstrated by mass‐balance analyses. </t>
     </r>
@@ -484,11 +481,14 @@
   <si>
     <t>Table 2. Lake model parameters</t>
   </si>
+  <si>
+    <t>Kvarnäs, H. 2001. Morphometry and Hydrology of the Four Large Lakes of Sweden. Ambio 30: 467-474</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>16</v>
@@ -1066,13 +1066,13 @@
         <v>20</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N2" s="20" t="s">
         <v>19</v>
@@ -1093,13 +1093,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="25">
         <v>36.4</v>
@@ -1117,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="27">
         <v>2</v>
@@ -1139,13 +1139,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="25">
         <v>71.400000000000006</v>
@@ -1193,13 +1193,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="25">
         <v>3990</v>
@@ -1247,13 +1247,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="25">
         <v>149</v>
@@ -1301,13 +1301,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="25">
         <v>1610</v>
@@ -1355,13 +1355,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="32">
         <v>565000</v>
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5"/>
     </row>
@@ -1431,7 +1431,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="5"/>
     </row>
@@ -1480,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C21" s="6"/>
     </row>
@@ -1499,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,12 +1512,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>6</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="10">
         <v>364000</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="10">
         <v>2760000</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>3.992</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>0.54</v>
@@ -1689,12 +1689,12 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>0.01</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="11">
         <v>27</v>
@@ -1740,12 +1740,12 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>0.29099999999999998</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>0.41099999999999998</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18">
@@ -1858,7 +1858,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>0.9</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1923,12 +1923,12 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.01</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="11">
         <v>1E-3</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="38">
         <v>0.8</v>

--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kfarrell\Documents\R\SOS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9390" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1) Lake characteristics" sheetId="1" r:id="rId1"/>
-    <sheet name="2) Lake parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="2) Built model with equations" sheetId="3" r:id="rId2"/>
+    <sheet name="3) Model parameters" sheetId="2" r:id="rId3"/>
+    <sheet name="4) Mass balances" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>Lake</t>
   </si>
@@ -237,9 +234,6 @@
     <t>68°63', 149°61'</t>
   </si>
   <si>
-    <t>27°37', 81°19'</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Yao, H., McConnell, C., Somers, K. M., Yan, N. D., Watmough, S., &amp; Scheider, W. (2011). Nearshore human interventions reverse patterns of decline in lake calcium budgets in central Ontario as demonstrated by mass‐balance analyses. </t>
     </r>
@@ -283,9 +277,6 @@
     </r>
   </si>
   <si>
-    <t>mesotrophic</t>
-  </si>
-  <si>
     <t xml:space="preserve"> http://www.niva.no/en/langtjern</t>
   </si>
   <si>
@@ -298,15 +289,9 @@
     <t>2001-2013</t>
   </si>
   <si>
-    <t>2006-2013</t>
-  </si>
-  <si>
     <t>1991-2001</t>
   </si>
   <si>
-    <t>Mar 08-May 10</t>
-  </si>
-  <si>
     <t>2001-2010</t>
   </si>
   <si>
@@ -323,9 +308,6 @@
   </si>
   <si>
     <t>Parameter</t>
-  </si>
-  <si>
-    <t>Depth (m)</t>
   </si>
   <si>
     <r>
@@ -373,9 +355,6 @@
     <t>POC_init (g/m³)</t>
   </si>
   <si>
-    <t>BurialFactor (1/day)</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
@@ -428,12 +407,6 @@
     <t>POC_lc (1/day)</t>
   </si>
   <si>
-    <t>RespParam</t>
-  </si>
-  <si>
-    <t>DOC_sw (g/m³)</t>
-  </si>
-  <si>
     <t>2005-2008_Kling_Toolik_DOC: pulled avg DOC for value in DOC column</t>
   </si>
   <si>
@@ -449,9 +422,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Florida, USA</t>
-  </si>
-  <si>
     <t>Ontario, Canada</t>
   </si>
   <si>
@@ -479,17 +449,65 @@
     <t>46°02', 89°40'</t>
   </si>
   <si>
-    <t>Table 2. Lake model parameters</t>
-  </si>
-  <si>
     <t>Kvarnäs, H. 2001. Morphometry and Hydrology of the Four Large Lakes of Sweden. Ambio 30: 467-474</t>
+  </si>
+  <si>
+    <t>Monona</t>
+  </si>
+  <si>
+    <t>2003-2014</t>
+  </si>
+  <si>
+    <t>http://limnology.wisc.edu/lake_information/other_yahara_lakes/monona.html</t>
+  </si>
+  <si>
+    <t>BurialFactor R (1/day)</t>
+  </si>
+  <si>
+    <t>BurialFactor L (1/day)</t>
+  </si>
+  <si>
+    <t>POC_lc R (1/day)</t>
+  </si>
+  <si>
+    <t>POC_lc L (1/day)</t>
+  </si>
+  <si>
+    <t>DOCR_RespParam</t>
+  </si>
+  <si>
+    <t>DOCL_RespParam</t>
+  </si>
+  <si>
+    <t>Table 3. Lake model parameters (optimized parameters italicized)</t>
+  </si>
+  <si>
+    <t>Table 2. Built model with equations</t>
+  </si>
+  <si>
+    <t>Alloch</t>
+  </si>
+  <si>
+    <t>Autoch</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Table 4. Summary of mean mass balances (g/m2/yr)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,18 +592,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -626,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -640,11 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,8 +712,13 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,21 +991,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
@@ -1012,481 +1025,435 @@
     <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="39.75" thickBot="1">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="20"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="23">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="F3" s="24">
+        <v>9500000</v>
+      </c>
+      <c r="G3" s="23">
+        <v>4000</v>
+      </c>
+      <c r="H3" s="25">
+        <v>12</v>
+      </c>
+      <c r="I3" s="25">
+        <v>3.1</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="L3" s="25">
+        <v>5</v>
+      </c>
+      <c r="M3" s="25">
+        <v>4</v>
+      </c>
+      <c r="N3" s="23">
+        <v>528.27563249500008</v>
+      </c>
+      <c r="O3" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P3" s="25">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="D4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1326</v>
+      </c>
+      <c r="F4" s="24">
+        <v>110000000</v>
+      </c>
+      <c r="G4" s="23">
+        <v>35200</v>
+      </c>
+      <c r="H4" s="25">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="25">
+        <v>2.68</v>
+      </c>
+      <c r="L4" s="26">
+        <v>132.1</v>
+      </c>
+      <c r="M4" s="26">
+        <v>6</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="23">
+        <v>149</v>
+      </c>
+      <c r="F5" s="24">
+        <v>10600000</v>
+      </c>
+      <c r="G5" s="23">
+        <v>8104</v>
+      </c>
+      <c r="H5" s="25">
+        <v>7</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="25">
+        <v>4.75</v>
+      </c>
+      <c r="L5" s="25">
+        <v>2</v>
+      </c>
+      <c r="M5" s="27">
+        <v>5</v>
+      </c>
+      <c r="N5" s="23">
+        <v>6752.4100000000008</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0.504</v>
+      </c>
+      <c r="P5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1610</v>
+      </c>
+      <c r="F6" s="24">
+        <v>235000000</v>
+      </c>
+      <c r="G6" s="23">
+        <v>25900</v>
+      </c>
+      <c r="H6" s="25">
+        <v>14.6</v>
+      </c>
+      <c r="I6" s="25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="25">
+        <v>5.32</v>
+      </c>
+      <c r="L6" s="25">
+        <v>11</v>
+      </c>
+      <c r="M6" s="25">
+        <v>3</v>
+      </c>
+      <c r="N6" s="23">
+        <v>4831.9225000000006</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0.106</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A7" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="19" t="s">
+      <c r="E7" s="30">
+        <v>565000</v>
+      </c>
+      <c r="F7" s="31">
+        <v>153000000000</v>
+      </c>
+      <c r="G7" s="30">
+        <v>2007000</v>
+      </c>
+      <c r="H7" s="32">
+        <v>27</v>
+      </c>
+      <c r="I7" s="32">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="32">
+        <v>4.47</v>
+      </c>
+      <c r="L7" s="33">
+        <v>6.3</v>
+      </c>
+      <c r="M7" s="33">
+        <v>4</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75">
+      <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="22"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="25">
-        <v>36.4</v>
-      </c>
-      <c r="F3" s="26">
-        <v>2760000</v>
-      </c>
-      <c r="G3" s="25">
-        <v>2334.768</v>
-      </c>
-      <c r="H3" s="27">
-        <v>10</v>
-      </c>
-      <c r="I3" s="27">
-        <v>2</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="27">
-        <v>2</v>
-      </c>
-      <c r="L3" s="27">
-        <v>5</v>
-      </c>
-      <c r="M3" s="27">
-        <v>8</v>
-      </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="25">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="F4" s="26">
-        <v>9500000</v>
-      </c>
-      <c r="G4" s="25">
-        <v>4000</v>
-      </c>
-      <c r="H4" s="27">
-        <v>12</v>
-      </c>
-      <c r="I4" s="27">
-        <v>3.1</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="27">
-        <v>6.5</v>
-      </c>
-      <c r="L4" s="27">
-        <v>5</v>
-      </c>
-      <c r="M4" s="27">
-        <v>4</v>
-      </c>
-      <c r="N4" s="25">
-        <v>528.27563249500008</v>
-      </c>
-      <c r="O4" s="27">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="P4" s="27">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="Q4" s="27">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="25">
-        <v>3990</v>
-      </c>
-      <c r="F5" s="26">
-        <v>505000000</v>
-      </c>
-      <c r="G5" s="25">
-        <v>35200</v>
-      </c>
-      <c r="H5" s="27">
-        <v>12.7</v>
-      </c>
-      <c r="I5" s="27">
-        <v>6.2</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="27">
-        <v>2.84</v>
-      </c>
-      <c r="L5" s="28">
-        <v>20</v>
-      </c>
-      <c r="M5" s="28">
-        <v>5</v>
-      </c>
-      <c r="N5" s="25">
-        <v>60403.9087</v>
-      </c>
-      <c r="O5" s="27">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="P5" s="27">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="Q5" s="27">
-        <v>0.626</v>
-      </c>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="25">
-        <v>149</v>
-      </c>
-      <c r="F6" s="26">
-        <v>10600000</v>
-      </c>
-      <c r="G6" s="25">
-        <v>8104</v>
-      </c>
-      <c r="H6" s="27">
-        <v>7</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="27">
-        <v>4.75</v>
-      </c>
-      <c r="L6" s="27">
-        <v>2</v>
-      </c>
-      <c r="M6" s="29">
-        <v>5</v>
-      </c>
-      <c r="N6" s="25">
-        <v>6752.4100000000008</v>
-      </c>
-      <c r="O6" s="27">
-        <v>0.504</v>
-      </c>
-      <c r="P6" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="27">
-        <v>0</v>
-      </c>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1610</v>
-      </c>
-      <c r="F7" s="26">
-        <v>235000000</v>
-      </c>
-      <c r="G7" s="25">
-        <v>25900</v>
-      </c>
-      <c r="H7" s="27">
-        <v>14.6</v>
-      </c>
-      <c r="I7" s="27">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="27">
-        <v>5.32</v>
-      </c>
-      <c r="L7" s="27">
-        <v>11</v>
-      </c>
-      <c r="M7" s="27">
-        <v>3</v>
-      </c>
-      <c r="N7" s="25">
-        <v>4831.9225000000006</v>
-      </c>
-      <c r="O7" s="27">
-        <v>0.106</v>
-      </c>
-      <c r="P7" s="27">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="32">
-        <v>565000</v>
-      </c>
-      <c r="F8" s="33">
-        <v>153000000000</v>
-      </c>
-      <c r="G8" s="32">
-        <v>2007000</v>
-      </c>
-      <c r="H8" s="34">
-        <v>27</v>
-      </c>
-      <c r="I8" s="34">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="34">
-        <v>4.47</v>
-      </c>
-      <c r="L8" s="35">
-        <v>6.3</v>
-      </c>
-      <c r="M8" s="35">
-        <v>4</v>
-      </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="36"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1496,325 +1463,306 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>52</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="39" t="s">
+        <v>46</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
-        <v>3062</v>
+        <v>4000</v>
       </c>
       <c r="C4">
-        <v>4000</v>
+        <v>35200</v>
       </c>
       <c r="D4">
-        <v>35200</v>
+        <v>8104</v>
       </c>
       <c r="E4">
-        <v>8104</v>
+        <v>25900</v>
       </c>
       <c r="F4">
-        <v>25900</v>
-      </c>
-      <c r="G4">
         <v>2007000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D5">
-        <v>12.7</v>
+        <v>7</v>
       </c>
       <c r="E5">
+        <v>14.6</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>713800</v>
+      </c>
+      <c r="C6">
+        <v>13260000</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1490000</v>
+      </c>
+      <c r="E6">
+        <v>16079000</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5650000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>8320000</v>
+      </c>
+      <c r="C7" s="9">
+        <v>110000000</v>
+      </c>
+      <c r="D7">
+        <v>10566000</v>
+      </c>
+      <c r="E7">
+        <v>234753400</v>
+      </c>
+      <c r="F7" s="9">
+        <v>153000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>3.7</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="F5">
-        <v>14.6</v>
-      </c>
-      <c r="G5">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2.9</v>
+      </c>
+      <c r="F8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>0.37</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="37">
+        <v>0.46449228345897298</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.195991695460872</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.121</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0.47966093890426897</v>
+      </c>
+      <c r="F11" s="37">
+        <v>1.1186517495652901E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="37">
+        <v>-0.79595429675272</v>
+      </c>
+      <c r="C12" s="37">
+        <v>0.136559638009914</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="E12" s="37">
+        <v>-2.2603196508786502E-2</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.21709348742021201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>249</v>
+      </c>
+      <c r="D13">
+        <v>153.36000000000001</v>
+      </c>
+      <c r="E13">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="10">
-        <v>364000</v>
-      </c>
-      <c r="C6">
-        <v>713800</v>
-      </c>
-      <c r="D6">
-        <v>39850000</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1490000</v>
-      </c>
-      <c r="F6">
-        <v>16079000</v>
-      </c>
-      <c r="G6" s="10">
-        <v>5650000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F13">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="10">
-        <v>2760000</v>
-      </c>
-      <c r="C7">
-        <v>8320000</v>
-      </c>
-      <c r="D7">
-        <v>505100000</v>
-      </c>
-      <c r="E7">
-        <v>10566000</v>
-      </c>
-      <c r="F7">
-        <v>234753400</v>
-      </c>
-      <c r="G7" s="10">
-        <v>153000000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>3.992</v>
-      </c>
-      <c r="C8">
-        <v>3.7</v>
-      </c>
-      <c r="D8">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>2.9</v>
-      </c>
-      <c r="G8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>0.54</v>
-      </c>
-      <c r="C9">
-        <v>0.37</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="F9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G9">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4.82E-2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.77</v>
+      </c>
+      <c r="F15">
+        <v>0.61470000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>51</v>
-      </c>
-      <c r="B11">
-        <v>0.01</v>
-      </c>
-      <c r="C11">
-        <v>7.0860000000000006E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="E11">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="F11">
-        <v>8.3811000000000007E-3</v>
-      </c>
-      <c r="G11">
-        <v>0.15939</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="11">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>78</v>
-      </c>
-      <c r="D12">
-        <v>249</v>
-      </c>
-      <c r="E12">
-        <v>153.36000000000001</v>
-      </c>
-      <c r="F12">
-        <v>27</v>
-      </c>
-      <c r="G12">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.77</v>
-      </c>
-      <c r="G14">
-        <v>0.61470000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F15">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G15">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>58</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1831,76 +1779,70 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="11"/>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
         <v>10</v>
       </c>
-      <c r="D18" s="37">
+      <c r="C19" s="35">
         <v>10</v>
       </c>
-      <c r="E18">
+      <c r="D19">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="E19">
         <v>10</v>
       </c>
-      <c r="G18">
+      <c r="F19">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19">
-        <v>6.2</v>
-      </c>
-      <c r="D19" s="11">
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>6.64</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20">
-        <v>0.9</v>
-      </c>
-      <c r="C20">
+      <c r="C20" s="36">
         <v>0</v>
       </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="D20" s="36">
         <v>0.19</v>
       </c>
+      <c r="E20">
+        <v>0.19</v>
+      </c>
       <c r="F20">
-        <v>0.19</v>
-      </c>
-      <c r="G20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1917,86 +1859,274 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23">
+      <c r="B23" s="37">
         <v>0.01</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="37">
+        <v>1.6376367999999999E-2</v>
+      </c>
+      <c r="D23" s="37">
         <v>0.01</v>
       </c>
-      <c r="D23">
+      <c r="E23" s="37">
         <v>0.01</v>
       </c>
-      <c r="E23">
-        <v>0.01</v>
-      </c>
-      <c r="F23">
-        <v>0.01</v>
-      </c>
-      <c r="G23">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="C24">
-        <v>2.1638999999999999E-3</v>
-      </c>
-      <c r="D24">
-        <v>1E-3</v>
-      </c>
-      <c r="E24">
-        <v>1.66E-2</v>
-      </c>
-      <c r="F24">
-        <v>2.5043999999999999E-3</v>
-      </c>
-      <c r="G24">
-        <v>2.1359999999999999E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.87927200000000005</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.67564999999999997</v>
+      <c r="F23" s="37">
+        <v>7.8187128499999994E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="37">
+        <v>-0.35752906422480701</v>
+      </c>
+      <c r="C24" s="37">
+        <v>-5.59387021057463E-2</v>
+      </c>
+      <c r="D24" s="37">
+        <v>-0.107</v>
+      </c>
+      <c r="E24" s="37">
+        <v>-0.30998355358836299</v>
+      </c>
+      <c r="F24" s="37">
+        <v>-5.4730755010140497E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="37">
+        <v>0.84667877472329001</v>
+      </c>
+      <c r="C25" s="37">
+        <v>4.3346862484587703E-2</v>
+      </c>
+      <c r="D25" s="37">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0.48010813434593702</v>
+      </c>
+      <c r="F25" s="37">
+        <v>2.0477065207950101E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="37">
+        <v>-5.9466720480597799E-5</v>
+      </c>
+      <c r="C26" s="37">
+        <v>7.9000744108158501E-4</v>
+      </c>
+      <c r="D26" s="37">
+        <v>9.2E-5</v>
+      </c>
+      <c r="E26" s="37">
+        <v>2.22875106568458E-2</v>
+      </c>
+      <c r="F26" s="37">
+        <v>1.5320599380036499E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="37">
+        <v>1.87092970054612E-4</v>
+      </c>
+      <c r="C27" s="37">
+        <v>2.2302714202554301E-3</v>
+      </c>
+      <c r="D27" s="37">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="E27" s="37">
+        <v>4.9495961850723798E-3</v>
+      </c>
+      <c r="F27" s="37">
+        <v>6.9542528461321305E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="38">
+        <v>1</v>
+      </c>
+      <c r="C28" s="38">
+        <v>0.81556714708038602</v>
+      </c>
+      <c r="D28" s="38">
+        <v>1.0697000000000001</v>
+      </c>
+      <c r="E28" s="38">
+        <v>0.70738097645393605</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0.55418524872402897</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>27.165807106401701</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4.6052801733764097</v>
+      </c>
+      <c r="E3">
+        <v>17.656240240508598</v>
+      </c>
+      <c r="F3">
+        <v>4.2813113332424004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>73.667086250309495</v>
+      </c>
+      <c r="C4">
+        <v>49.787086514118997</v>
+      </c>
+      <c r="D4">
+        <v>11.013828567862999</v>
+      </c>
+      <c r="E4">
+        <v>44.715306524864999</v>
+      </c>
+      <c r="F4">
+        <v>69.385534908076394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>63.298741303814801</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.88337565459458101</v>
+      </c>
+      <c r="E5">
+        <v>38.355964590175503</v>
+      </c>
+      <c r="F5">
+        <v>24.033370442340502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>56.553975482903603</v>
+      </c>
+      <c r="C6">
+        <v>43.4450500725358</v>
+      </c>
+      <c r="D6">
+        <v>51.669377084556501</v>
+      </c>
+      <c r="E6">
+        <v>2.2554049779415801</v>
+      </c>
+      <c r="F6">
+        <v>46.843985933452899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>42.8620755682416</v>
+      </c>
+      <c r="C7" s="4">
+        <v>59.890920402134398</v>
+      </c>
+      <c r="D7" s="4">
+        <v>26.360838875360901</v>
+      </c>
+      <c r="E7" s="4">
+        <v>61.396706932319802</v>
+      </c>
+      <c r="F7" s="4">
+        <v>14.566598505031701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9390" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9390" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1) Lake characteristics" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
   <si>
     <t>Lake</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Sedimentation</t>
   </si>
   <si>
-    <t>Surface/ground inflows</t>
-  </si>
-  <si>
     <t>Respiration</t>
   </si>
   <si>
@@ -404,9 +401,6 @@
     <t>DOC_precip (g/m³)</t>
   </si>
   <si>
-    <t>POC_lc (1/day)</t>
-  </si>
-  <si>
     <t>2005-2008_Kling_Toolik_DOC: pulled avg DOC for value in DOC column</t>
   </si>
   <si>
@@ -501,6 +495,111 @@
   </si>
   <si>
     <t>Table 4. Summary of mean mass balances (g/m2/yr)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Surface and groundwater</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>g/m/d</t>
+  </si>
+  <si>
+    <t>g/m2/yr</t>
+  </si>
+  <si>
+    <t>POC Burial = MAR * (1/365) * Area</t>
+  </si>
+  <si>
+    <t>POC Aerial = AerialLoad * Perimeter</t>
+  </si>
+  <si>
+    <t>Mass accumulation rate (MAR) = POC mass * BurialFactor * 365/Area</t>
+  </si>
+  <si>
+    <t>g/d</t>
+  </si>
+  <si>
+    <t>DOC Wetland = PropWetland * WetlandLoad * Perimeter</t>
+  </si>
+  <si>
+    <t>DOC GW = groundwater concentration * groundwater inflow rate * 86400</t>
+  </si>
+  <si>
+    <t>DOC SW =  surface water concentration * surface water inflow rate * 86400</t>
+  </si>
+  <si>
+    <t>m3/d</t>
+  </si>
+  <si>
+    <t>Daily precipitation = rainfall * 0.001 * Area</t>
+  </si>
+  <si>
+    <t>DOC precipitation = DOC_precip * Daily precipitation</t>
+  </si>
+  <si>
+    <t>Inflow load DOC = DOC Wetland + DOC GW + DOC SW + DOC precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal load POC = (DOC Wetland + DOC SW) * 0.1  </t>
+  </si>
+  <si>
+    <t>Inflow load POC = POC Aerial + Internal load POC</t>
+  </si>
+  <si>
+    <t>GPP and Respiration</t>
+  </si>
+  <si>
+    <t>mg/m2/d</t>
+  </si>
+  <si>
+    <t>GPP rate  = 10^(1.18 + (0.92 * log10(chlorophyll-a * photic depth)) + (0.014 * epilimnion temperature)) *</t>
+  </si>
+  <si>
+    <t>* Morin et al. (1999)</t>
+  </si>
+  <si>
+    <t>GPP percent DOC = 71.4 * (chlorophyll-a * photic depth)^(-0.22) **</t>
+  </si>
+  <si>
+    <t>** Pace and Prairie (2005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPP DOC rate = GPP rate * (GPP percent DOC/100) </t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>GPP POC rate = GPP rate * (1-(GPP percent DOC/100))</t>
+  </si>
+  <si>
+    <t>Respiration (labile) = GPP DOC rate * DOCL_RespParam(1.08^(epilimnion temp - 20))</t>
+  </si>
+  <si>
+    <t>Respiration (recalcitrant) = GPP DOC rate * DOCR_RespParam(1.08^(epilimnion temp - 20))</t>
+  </si>
+  <si>
+    <t>g/m3</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>POC (recalcitrant) leached out = recalcitrant POC concentration * POC_lcR * Volume</t>
+  </si>
+  <si>
+    <t>POC (labile) leached out = labile POC concentration * POC_lcL * Volume</t>
+  </si>
+  <si>
+    <t>DOC (recalcitrant) leached in = POC (recalcitrant) leached out</t>
+  </si>
+  <si>
+    <t>DOC (labile) leached in = POC (labile) leached out</t>
   </si>
 </sst>
 </file>
@@ -638,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -718,6 +817,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,7 +1097,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1052,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>32</v>
@@ -1064,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>16</v>
@@ -1079,13 +1185,13 @@
         <v>20</v>
       </c>
       <c r="K2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>19</v>
@@ -1106,10 +1212,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>35</v>
@@ -1157,16 +1263,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="23">
         <v>1326</v>
@@ -1206,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>29</v>
@@ -1260,10 +1366,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>33</v>
@@ -1314,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>28</v>
@@ -1421,7 +1527,7 @@
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -1439,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="6"/>
     </row>
@@ -1450,10 +1556,10 @@
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1464,17 +1570,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F15" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="90.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="39"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1486,18 +1797,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
@@ -1508,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>3</v>
@@ -1657,7 +1972,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="37">
         <v>0.46449228345897298</v>
@@ -1677,7 +1992,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="37">
         <v>-0.79595429675272</v>
@@ -1697,7 +2012,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>78</v>
@@ -1717,7 +2032,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="39" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1785,204 +2100,189 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C18" s="35">
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" s="35">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36">
+        <v>0.19</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>0.19</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="36">
-        <v>0</v>
-      </c>
-      <c r="D20" s="36">
-        <v>0.19</v>
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>0.19</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
+      <c r="A21" s="39" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="39" t="s">
-        <v>49</v>
+      <c r="A22" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="37">
+        <v>-5.9466720480597799E-5</v>
+      </c>
+      <c r="C22" s="37">
+        <v>7.9000744108158501E-4</v>
+      </c>
+      <c r="D22" s="37">
+        <v>9.2E-5</v>
+      </c>
+      <c r="E22" s="37">
+        <v>2.22875106568458E-2</v>
+      </c>
+      <c r="F22" s="37">
+        <v>1.5320599380036499E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="37" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B23" s="37">
-        <v>0.01</v>
+        <v>1.87092970054612E-4</v>
       </c>
       <c r="C23" s="37">
-        <v>1.6376367999999999E-2</v>
+        <v>2.2302714202554301E-3</v>
       </c>
       <c r="D23" s="37">
-        <v>0.01</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="E23" s="37">
-        <v>0.01</v>
+        <v>4.9495961850723798E-3</v>
       </c>
       <c r="F23" s="37">
-        <v>7.8187128499999994E-3</v>
+        <v>6.9542528461321305E-4</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="37">
-        <v>-0.35752906422480701</v>
-      </c>
-      <c r="C24" s="37">
-        <v>-5.59387021057463E-2</v>
-      </c>
-      <c r="D24" s="37">
-        <v>-0.107</v>
-      </c>
-      <c r="E24" s="37">
-        <v>-0.30998355358836299</v>
-      </c>
-      <c r="F24" s="37">
-        <v>-5.4730755010140497E-3</v>
+      <c r="A24" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="40">
+        <v>1</v>
+      </c>
+      <c r="C24" s="40">
+        <v>0.81556714708038602</v>
+      </c>
+      <c r="D24" s="40">
+        <v>1.0697000000000001</v>
+      </c>
+      <c r="E24" s="40">
+        <v>0.70738097645393605</v>
+      </c>
+      <c r="F24" s="40">
+        <v>0.55418524872402897</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="37">
-        <v>0.84667877472329001</v>
-      </c>
-      <c r="C25" s="37">
-        <v>4.3346862484587703E-2</v>
-      </c>
-      <c r="D25" s="37">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="E25" s="37">
-        <v>0.48010813434593702</v>
-      </c>
-      <c r="F25" s="37">
-        <v>2.0477065207950101E-2</v>
+      <c r="A25" s="41" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="37">
-        <v>-5.9466720480597799E-5</v>
-      </c>
-      <c r="C26" s="37">
-        <v>7.9000744108158501E-4</v>
-      </c>
-      <c r="D26" s="37">
-        <v>9.2E-5</v>
-      </c>
-      <c r="E26" s="37">
-        <v>2.22875106568458E-2</v>
-      </c>
-      <c r="F26" s="37">
-        <v>1.5320599380036499E-3</v>
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B27" s="37">
-        <v>1.87092970054612E-4</v>
+        <v>-0.35752906422480701</v>
       </c>
       <c r="C27" s="37">
-        <v>2.2302714202554301E-3</v>
+        <v>-5.59387021057463E-2</v>
       </c>
       <c r="D27" s="37">
-        <v>1.9199999999999998E-2</v>
+        <v>-0.107</v>
       </c>
       <c r="E27" s="37">
-        <v>4.9495961850723798E-3</v>
+        <v>-0.30998355358836299</v>
       </c>
       <c r="F27" s="37">
-        <v>6.9542528461321305E-4</v>
+        <v>-5.4730755010140497E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="38" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B28" s="38">
-        <v>1</v>
+        <v>0.84667877472329001</v>
       </c>
       <c r="C28" s="38">
-        <v>0.81556714708038602</v>
+        <v>4.3346862484587703E-2</v>
       </c>
       <c r="D28" s="38">
-        <v>1.0697000000000001</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E28" s="38">
-        <v>0.70738097645393605</v>
+        <v>0.48010813434593702</v>
       </c>
       <c r="F28" s="38">
-        <v>0.55418524872402897</v>
+        <v>2.0477065207950101E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1995,7 +2295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2003,7 +2303,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
@@ -2011,19 +2311,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2048,7 +2348,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>73.667086250309495</v>

--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="1) Lake characteristics" sheetId="1" r:id="rId1"/>
-    <sheet name="2) Built model with equations" sheetId="3" r:id="rId2"/>
-    <sheet name="3) Model parameters" sheetId="2" r:id="rId3"/>
+    <sheet name="2) Model parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="3) Built model with equations" sheetId="3" r:id="rId3"/>
     <sheet name="4) Mass balances" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
   <si>
     <t>Lake</t>
   </si>
@@ -473,12 +473,6 @@
     <t>DOCL_RespParam</t>
   </si>
   <si>
-    <t>Table 3. Lake model parameters (optimized parameters italicized)</t>
-  </si>
-  <si>
-    <t>Table 2. Built model with equations</t>
-  </si>
-  <si>
     <t>Alloch</t>
   </si>
   <si>
@@ -600,6 +594,24 @@
   </si>
   <si>
     <t>DOC (labile) leached in = POC (labile) leached out</t>
+  </si>
+  <si>
+    <t>Table 3. Built model with equations</t>
+  </si>
+  <si>
+    <t>Table 2. Lake model parameters (optimized parameters italicized)</t>
+  </si>
+  <si>
+    <t>GPP DOC (labile) rate = 0</t>
+  </si>
+  <si>
+    <t>GPP POC (labile) rate = GPP POC rate + GPP DOC rate</t>
+  </si>
+  <si>
+    <t>NPP DOC (labile) = GPP DOC (labile) * (1-R_auto) * Area / 1000</t>
+  </si>
+  <si>
+    <t>NPP POC (labile) = GPP POC (labile) * (1-R_auto) * Area / 1000</t>
   </si>
 </sst>
 </file>
@@ -1570,235 +1582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F15" sqref="F14:F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="90.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="39"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1812,7 +1599,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
@@ -2032,7 +1819,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2222,7 +2009,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2288,6 +2075,263 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="92.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="39"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2303,7 +2347,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
@@ -2311,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Ian_GIS\gleon\SOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="9390" firstSheet="1" activeTab="2"/>
   </bookViews>
@@ -13,8 +18,8 @@
     <sheet name="4) Mass balances" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
   <si>
     <t>Lake</t>
   </si>
@@ -572,53 +577,56 @@
     <t>GPP POC rate = GPP rate * (1-(GPP percent DOC/100))</t>
   </si>
   <si>
-    <t>Respiration (labile) = GPP DOC rate * DOCL_RespParam(1.08^(epilimnion temp - 20))</t>
-  </si>
-  <si>
-    <t>Respiration (recalcitrant) = GPP DOC rate * DOCR_RespParam(1.08^(epilimnion temp - 20))</t>
-  </si>
-  <si>
     <t>g/m3</t>
   </si>
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>POC (recalcitrant) leached out = recalcitrant POC concentration * POC_lcR * Volume</t>
-  </si>
-  <si>
-    <t>POC (labile) leached out = labile POC concentration * POC_lcL * Volume</t>
-  </si>
-  <si>
-    <t>DOC (recalcitrant) leached in = POC (recalcitrant) leached out</t>
-  </si>
-  <si>
-    <t>DOC (labile) leached in = POC (labile) leached out</t>
-  </si>
-  <si>
     <t>Table 3. Built model with equations</t>
   </si>
   <si>
     <t>Table 2. Lake model parameters (optimized parameters italicized)</t>
   </si>
   <si>
-    <t>GPP DOC (labile) rate = 0</t>
-  </si>
-  <si>
-    <t>GPP POC (labile) rate = GPP POC rate + GPP DOC rate</t>
-  </si>
-  <si>
-    <t>NPP DOC (labile) = GPP DOC (labile) * (1-R_auto) * Area / 1000</t>
-  </si>
-  <si>
-    <t>NPP POC (labile) = GPP POC (labile) * (1-R_auto) * Area / 1000</t>
+    <t>L = labile, R =  recalcitrant</t>
+  </si>
+  <si>
+    <t>DOC_L leached in = POC_L leached out</t>
+  </si>
+  <si>
+    <t>DOC_R leached in = POC_R leached out</t>
+  </si>
+  <si>
+    <t>POC_L leached out = POC_L concentration * POC_lcL * Volume</t>
+  </si>
+  <si>
+    <t>POC_R leached out = POC_R concentration * POC_lcR * Volume</t>
+  </si>
+  <si>
+    <t>Respiration_L = GPP DOC rate * DOCL_RespParam(1.08^(epilimnion temp - 20))</t>
+  </si>
+  <si>
+    <t>Respiration_R = GPP DOC rate * DOCR_RespParam(1.08^(epilimnion temp - 20))</t>
+  </si>
+  <si>
+    <t>NPP POC_L = GPP POC_L * (1-R_auto) * Area / 1000</t>
+  </si>
+  <si>
+    <t>NPP DOC_L = GPP DOC_L * (1-R_auto) * Area / 1000</t>
+  </si>
+  <si>
+    <t>GPP POC_L rate = GPP POC rate + GPP DOC rate</t>
+  </si>
+  <si>
+    <t>GPP DOC_L rate = 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -837,6 +845,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,21 +1119,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
@@ -1143,7 +1153,7 @@
     <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -1165,7 +1175,7 @@
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="39.75" thickBot="1">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1229,7 @@
       </c>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
@@ -1273,7 +1283,7 @@
       </c>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>69</v>
       </c>
@@ -1319,7 +1329,7 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1383,7 @@
       </c>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
@@ -1427,7 +1437,7 @@
       </c>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:18" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
@@ -1473,12 +1483,12 @@
       <c r="Q7" s="32"/>
       <c r="R7" s="34"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1487,14 +1497,14 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1513,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1511,7 +1521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1520,14 +1530,14 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75">
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1536,14 +1546,14 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1562,7 @@
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1561,12 +1571,12 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -1581,14 +1591,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -1597,12 +1607,12 @@
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
@@ -1622,7 +1632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>46</v>
       </c>
@@ -1632,7 +1642,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1652,7 +1662,7 @@
         <v>2007000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1672,7 +1682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1692,7 +1702,7 @@
         <v>5650000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1712,7 +1722,7 @@
         <v>153000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1732,7 +1742,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1752,12 +1762,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>72</v>
       </c>
@@ -1777,7 +1787,7 @@
         <v>1.1186517495652901E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>73</v>
       </c>
@@ -1797,7 +1807,7 @@
         <v>0.21709348742021201</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1817,12 +1827,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1842,7 +1852,7 @@
         <v>0.61470000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1862,7 +1872,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1882,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1902,7 +1912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1922,7 +1932,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1942,12 +1952,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>76</v>
       </c>
@@ -1967,7 +1977,7 @@
         <v>1.5320599380036499E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>77</v>
       </c>
@@ -1987,7 +1997,7 @@
         <v>6.9542528461321305E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>40</v>
       </c>
@@ -2007,12 +2017,12 @@
         <v>0.55418524872402897</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2032,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>74</v>
       </c>
@@ -2052,7 +2062,7 @@
         <v>-5.4730755010140497E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>75</v>
       </c>
@@ -2079,24 +2089,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>85</v>
       </c>
@@ -2104,7 +2114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>93</v>
       </c>
@@ -2112,7 +2122,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>94</v>
       </c>
@@ -2120,7 +2130,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>95</v>
       </c>
@@ -2128,7 +2138,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>97</v>
       </c>
@@ -2136,7 +2146,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>98</v>
       </c>
@@ -2144,7 +2154,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>99</v>
       </c>
@@ -2152,7 +2162,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>100</v>
       </c>
@@ -2160,7 +2170,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>101</v>
       </c>
@@ -2168,13 +2178,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="39"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2182,7 +2192,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -2190,12 +2200,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>104</v>
       </c>
@@ -2203,7 +2213,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>106</v>
       </c>
@@ -2211,7 +2221,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -2219,7 +2229,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -2227,60 +2237,60 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
         <v>111</v>
       </c>
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -2288,45 +2298,51 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="43"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2336,21 +2352,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2370,7 +2386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2390,7 +2406,7 @@
         <v>4.2813113332424004</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -2410,7 +2426,7 @@
         <v>69.385534908076394</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2430,7 +2446,7 @@
         <v>24.033370442340502</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2450,7 +2466,7 @@
         <v>46.843985933452899</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>

--- a/Table1_SOS_Lake_Summary.xlsx
+++ b/Table1_SOS_Lake_Summary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="139">
   <si>
     <t>Lake</t>
   </si>
@@ -582,10 +582,28 @@
     <t>Proportion of catchment with tree cover</t>
   </si>
   <si>
-    <t>Proportion of catchment wetlands</t>
-  </si>
-  <si>
     <t>Proportion of lake inflow as groundwater</t>
+  </si>
+  <si>
+    <t>Loading rate of POC from wetlands</t>
+  </si>
+  <si>
+    <t>Proportion of catchment that is wetlands</t>
+  </si>
+  <si>
+    <t>Lake water DOC concentration at start of model run</t>
+  </si>
+  <si>
+    <t>Lake water POC concentration at start of model run</t>
+  </si>
+  <si>
+    <t>DOC concentration of groundwater</t>
+  </si>
+  <si>
+    <t>DOC concentration of precipitation</t>
+  </si>
+  <si>
+    <t>Influx of aerial POC (e.g., leaf litter)</t>
   </si>
 </sst>
 </file>
@@ -844,7 +862,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,7 +897,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1510,7 +1528,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1659,6 +1677,9 @@
       <c r="A8" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="C8" s="3">
         <v>3.7</v>
       </c>
@@ -1679,6 +1700,9 @@
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C9" s="3">
         <v>0.37</v>
       </c>
@@ -1797,7 +1821,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -1819,6 +1843,9 @@
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
@@ -1839,6 +1866,9 @@
       <c r="A18" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="B18" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="C18" s="3">
         <v>10</v>
       </c>
@@ -1860,7 +1890,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1882,6 +1912,9 @@
       <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="B20" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
@@ -1976,6 +2009,9 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
